--- a/LAB/Chap3/giải thích pascal mảng 2 chiều.xlsx
+++ b/LAB/Chap3/giải thích pascal mảng 2 chiều.xlsx
@@ -101,8 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,124 +389,140 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
     </row>
